--- a/data/output/Output Data Structure.xlsx
+++ b/data/output/Output Data Structure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,37 +512,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1032</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1348</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>8.44</v>
+        <v>14.51</v>
       </c>
       <c r="I2" t="n">
-        <v>10435</v>
+        <v>343</v>
       </c>
       <c r="J2" t="n">
-        <v>17550</v>
+        <v>616</v>
       </c>
       <c r="K2" t="n">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="L2" t="n">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>8.42</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="3">
@@ -557,37 +557,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>509</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>10.88</v>
+        <v>21.73</v>
       </c>
       <c r="I3" t="n">
-        <v>4867</v>
+        <v>106</v>
       </c>
       <c r="J3" t="n">
-        <v>8514</v>
+        <v>218</v>
       </c>
       <c r="K3" t="n">
-        <v>3.48</v>
+        <v>2.68</v>
       </c>
       <c r="L3" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="4">
@@ -602,37 +602,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>13.97</v>
+        <v>21.92</v>
       </c>
       <c r="I4" t="n">
-        <v>5189</v>
+        <v>108</v>
       </c>
       <c r="J4" t="n">
-        <v>9171</v>
+        <v>216</v>
       </c>
       <c r="K4" t="n">
-        <v>3.39</v>
+        <v>2.7</v>
       </c>
       <c r="L4" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>8.98</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5">
@@ -647,37 +647,37 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>524</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>10.4</v>
+        <v>22.06</v>
       </c>
       <c r="I5" t="n">
-        <v>4909</v>
+        <v>110</v>
       </c>
       <c r="J5" t="n">
-        <v>8424</v>
+        <v>218</v>
       </c>
       <c r="K5" t="n">
-        <v>3.47</v>
+        <v>2.72</v>
       </c>
       <c r="L5" t="n">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>9.1</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="6">
@@ -692,37 +692,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>355</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.91</v>
+        <v>0.54</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14</v>
+        <v>22.31</v>
       </c>
       <c r="I6" t="n">
-        <v>5075</v>
+        <v>111</v>
       </c>
       <c r="J6" t="n">
-        <v>9024</v>
+        <v>218</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="L6" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>8.98</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="7">
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>317</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>519</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>10.56</v>
+        <v>21.72</v>
       </c>
       <c r="I7" t="n">
-        <v>4902</v>
+        <v>109</v>
       </c>
       <c r="J7" t="n">
-        <v>8405</v>
+        <v>215</v>
       </c>
       <c r="K7" t="n">
-        <v>3.44</v>
+        <v>2.71</v>
       </c>
       <c r="L7" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>9.07</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="8">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>14.17</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>4672</v>
+        <v>110</v>
       </c>
       <c r="J8" t="n">
-        <v>8111</v>
+        <v>219</v>
       </c>
       <c r="K8" t="n">
-        <v>3.46</v>
+        <v>2.69</v>
       </c>
       <c r="L8" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>9.140000000000001</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="9">
@@ -827,37 +827,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>16.45</v>
+        <v>22.26</v>
       </c>
       <c r="I9" t="n">
-        <v>4634</v>
+        <v>109</v>
       </c>
       <c r="J9" t="n">
-        <v>8161</v>
+        <v>218</v>
       </c>
       <c r="K9" t="n">
-        <v>3.46</v>
+        <v>2.71</v>
       </c>
       <c r="L9" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>9.15</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="10">
@@ -872,37 +872,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>341</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>15.92</v>
+        <v>20.92</v>
       </c>
       <c r="I10" t="n">
-        <v>4895</v>
+        <v>116</v>
       </c>
       <c r="J10" t="n">
-        <v>8645</v>
+        <v>227</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>2.73</v>
       </c>
       <c r="L10" t="n">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>8.970000000000001</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="11">
@@ -917,37 +917,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>18.18</v>
+        <v>20.61</v>
       </c>
       <c r="I11" t="n">
-        <v>5692</v>
+        <v>109</v>
       </c>
       <c r="J11" t="n">
-        <v>9843</v>
+        <v>218</v>
       </c>
       <c r="K11" t="n">
-        <v>3.39</v>
+        <v>2.72</v>
       </c>
       <c r="L11" t="n">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>8.94</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="12">
@@ -962,37 +962,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>516</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>10.72</v>
+        <v>22.07</v>
       </c>
       <c r="I12" t="n">
-        <v>5045</v>
+        <v>114</v>
       </c>
       <c r="J12" t="n">
-        <v>8568</v>
+        <v>222</v>
       </c>
       <c r="K12" t="n">
-        <v>3.48</v>
+        <v>2.72</v>
       </c>
       <c r="L12" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>9.119999999999999</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="13">
@@ -1007,37 +1007,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>412</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>46</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>439</v>
-      </c>
       <c r="H13" t="n">
-        <v>13.73</v>
+        <v>13.82</v>
       </c>
       <c r="I13" t="n">
-        <v>5313</v>
+        <v>248</v>
       </c>
       <c r="J13" t="n">
-        <v>9536</v>
+        <v>540</v>
       </c>
       <c r="K13" t="n">
-        <v>3.32</v>
+        <v>2.59</v>
       </c>
       <c r="L13" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>8.77</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="14">
@@ -1052,37 +1052,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>19.93</v>
+        <v>17.42</v>
       </c>
       <c r="I14" t="n">
-        <v>5179</v>
+        <v>198</v>
       </c>
       <c r="J14" t="n">
-        <v>9123</v>
+        <v>410</v>
       </c>
       <c r="K14" t="n">
-        <v>3.37</v>
+        <v>2.65</v>
       </c>
       <c r="L14" t="n">
-        <v>389</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>8.85</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="15">
@@ -1097,37 +1097,37 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>16.54</v>
+        <v>18.43</v>
       </c>
       <c r="I15" t="n">
-        <v>5604</v>
+        <v>140</v>
       </c>
       <c r="J15" t="n">
-        <v>9870</v>
+        <v>301</v>
       </c>
       <c r="K15" t="n">
-        <v>3.33</v>
+        <v>2.61</v>
       </c>
       <c r="L15" t="n">
-        <v>410</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>8.84</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="16">
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>436</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>388</v>
+        <v>37</v>
       </c>
       <c r="H16" t="n">
-        <v>16.24</v>
+        <v>14.1</v>
       </c>
       <c r="I16" t="n">
-        <v>5659</v>
+        <v>257</v>
       </c>
       <c r="J16" t="n">
-        <v>9877</v>
+        <v>515</v>
       </c>
       <c r="K16" t="n">
-        <v>3.32</v>
+        <v>2.67</v>
       </c>
       <c r="L16" t="n">
-        <v>515</v>
+        <v>21</v>
       </c>
       <c r="M16" t="n">
-        <v>8.74</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="17">
@@ -1187,37 +1187,37 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>499</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>428</v>
+        <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>14.94</v>
+        <v>16.25</v>
       </c>
       <c r="I17" t="n">
-        <v>5419</v>
+        <v>220</v>
       </c>
       <c r="J17" t="n">
-        <v>9912</v>
+        <v>475</v>
       </c>
       <c r="K17" t="n">
-        <v>3.29</v>
+        <v>2.65</v>
       </c>
       <c r="L17" t="n">
-        <v>389</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>8.779999999999999</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="18">
@@ -1232,37 +1232,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>387</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>449</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>13.96</v>
+        <v>16.28</v>
       </c>
       <c r="I18" t="n">
-        <v>5250</v>
+        <v>196</v>
       </c>
       <c r="J18" t="n">
-        <v>9683</v>
+        <v>448</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="L18" t="n">
-        <v>397</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>8.69</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="19">
@@ -1277,37 +1277,37 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>454</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>463</v>
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>14.56</v>
+        <v>15.01</v>
       </c>
       <c r="I19" t="n">
-        <v>5784</v>
+        <v>263</v>
       </c>
       <c r="J19" t="n">
-        <v>10459</v>
+        <v>551</v>
       </c>
       <c r="K19" t="n">
-        <v>3.26</v>
+        <v>2.65</v>
       </c>
       <c r="L19" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>8.59</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="20">
@@ -1322,37 +1322,37 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>557</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>434</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
-        <v>15.86</v>
+        <v>17.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5927</v>
+        <v>246</v>
       </c>
       <c r="J20" t="n">
-        <v>10489</v>
+        <v>495</v>
       </c>
       <c r="K20" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="L20" t="n">
-        <v>494</v>
+        <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>8.720000000000001</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="21">
@@ -1367,37 +1367,37 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>467</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>16.81</v>
+        <v>14.96</v>
       </c>
       <c r="I21" t="n">
-        <v>5362</v>
+        <v>232</v>
       </c>
       <c r="J21" t="n">
-        <v>9906</v>
+        <v>520</v>
       </c>
       <c r="K21" t="n">
-        <v>3.29</v>
+        <v>2.58</v>
       </c>
       <c r="L21" t="n">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>8.699999999999999</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="22">
@@ -1412,37 +1412,37 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>437</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="H22" t="n">
-        <v>13.82</v>
+        <v>14.68</v>
       </c>
       <c r="I22" t="n">
-        <v>6110</v>
+        <v>271</v>
       </c>
       <c r="J22" t="n">
-        <v>10613</v>
+        <v>567</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L22" t="n">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
-        <v>8.67</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="23">
@@ -1457,37 +1457,37 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41</v>
+        <v>19.67</v>
       </c>
       <c r="I23" t="n">
-        <v>4702</v>
+        <v>144</v>
       </c>
       <c r="J23" t="n">
-        <v>8262</v>
+        <v>302</v>
       </c>
       <c r="K23" t="n">
-        <v>3.38</v>
+        <v>2.51</v>
       </c>
       <c r="L23" t="n">
-        <v>382</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>8.94</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="24">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>376</v>
+        <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>15.01</v>
+        <v>15.13</v>
       </c>
       <c r="I24" t="n">
-        <v>5362</v>
+        <v>230</v>
       </c>
       <c r="J24" t="n">
-        <v>9148</v>
+        <v>425</v>
       </c>
       <c r="K24" t="n">
-        <v>3.41</v>
+        <v>2.81</v>
       </c>
       <c r="L24" t="n">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>8.98</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="25">
@@ -1547,37 +1547,37 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>475</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>14.86</v>
+        <v>17.38</v>
       </c>
       <c r="I25" t="n">
-        <v>5509</v>
+        <v>186</v>
       </c>
       <c r="J25" t="n">
-        <v>10315</v>
+        <v>366</v>
       </c>
       <c r="K25" t="n">
-        <v>3.23</v>
+        <v>2.7</v>
       </c>
       <c r="L25" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>8.65</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="26">
@@ -1592,37 +1592,37 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>455</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>380</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>15.75</v>
+        <v>18.51</v>
       </c>
       <c r="I26" t="n">
-        <v>5649</v>
+        <v>218</v>
       </c>
       <c r="J26" t="n">
-        <v>9558</v>
+        <v>428</v>
       </c>
       <c r="K26" t="n">
-        <v>3.39</v>
+        <v>2.71</v>
       </c>
       <c r="L26" t="n">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>8.93</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="27">
@@ -1637,37 +1637,37 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>507</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="H27" t="n">
-        <v>12.48</v>
+        <v>13.86</v>
       </c>
       <c r="I27" t="n">
-        <v>5338</v>
+        <v>246</v>
       </c>
       <c r="J27" t="n">
-        <v>10179</v>
+        <v>556</v>
       </c>
       <c r="K27" t="n">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="L27" t="n">
-        <v>347</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>8.529999999999999</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="28">
@@ -1682,37 +1682,37 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>433</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>374</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>18.42</v>
+        <v>17.77</v>
       </c>
       <c r="I28" t="n">
-        <v>5522</v>
+        <v>271</v>
       </c>
       <c r="J28" t="n">
-        <v>10686</v>
+        <v>663</v>
       </c>
       <c r="K28" t="n">
-        <v>3.14</v>
+        <v>2.42</v>
       </c>
       <c r="L28" t="n">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="M28" t="n">
-        <v>8.32</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="29">
@@ -1727,37 +1727,37 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>16.89</v>
+        <v>15.96</v>
       </c>
       <c r="I29" t="n">
-        <v>4401</v>
+        <v>127</v>
       </c>
       <c r="J29" t="n">
-        <v>8205</v>
+        <v>341</v>
       </c>
       <c r="K29" t="n">
-        <v>3.34</v>
+        <v>2.42</v>
       </c>
       <c r="L29" t="n">
-        <v>376</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>8.869999999999999</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="30">
@@ -1772,37 +1772,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>19.21</v>
+        <v>15.84</v>
       </c>
       <c r="I30" t="n">
-        <v>4330</v>
+        <v>134</v>
       </c>
       <c r="J30" t="n">
-        <v>7621</v>
+        <v>306</v>
       </c>
       <c r="K30" t="n">
-        <v>3.46</v>
+        <v>2.53</v>
       </c>
       <c r="L30" t="n">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>9.130000000000001</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="31">
@@ -1817,37 +1817,37 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>37.17</v>
+        <v>29.62</v>
       </c>
       <c r="I31" t="n">
-        <v>4536</v>
+        <v>128</v>
       </c>
       <c r="J31" t="n">
-        <v>7987</v>
+        <v>280</v>
       </c>
       <c r="K31" t="n">
-        <v>3.41</v>
+        <v>2.52</v>
       </c>
       <c r="L31" t="n">
-        <v>424</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>9.07</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="32">
@@ -1862,37 +1862,37 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>30.25</v>
+        <v>24.68</v>
       </c>
       <c r="I32" t="n">
-        <v>4292</v>
+        <v>101</v>
       </c>
       <c r="J32" t="n">
-        <v>7449</v>
+        <v>214</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="L32" t="n">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>9.23</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33">
@@ -1907,37 +1907,37 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>24.09</v>
+        <v>19.23</v>
       </c>
       <c r="I33" t="n">
-        <v>4425</v>
+        <v>120</v>
       </c>
       <c r="J33" t="n">
-        <v>7652</v>
+        <v>260</v>
       </c>
       <c r="K33" t="n">
-        <v>3.49</v>
+        <v>2.59</v>
       </c>
       <c r="L33" t="n">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>9.130000000000001</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="34">
@@ -1952,37 +1952,37 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>22.16</v>
+        <v>21.99</v>
       </c>
       <c r="I34" t="n">
-        <v>4482</v>
+        <v>119</v>
       </c>
       <c r="J34" t="n">
-        <v>8058</v>
+        <v>317</v>
       </c>
       <c r="K34" t="n">
-        <v>3.39</v>
+        <v>2.41</v>
       </c>
       <c r="L34" t="n">
-        <v>351</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>8.94</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="35">
@@ -1997,37 +1997,37 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="H35" t="n">
-        <v>13.28</v>
+        <v>12.23</v>
       </c>
       <c r="I35" t="n">
-        <v>4627</v>
+        <v>179</v>
       </c>
       <c r="J35" t="n">
-        <v>8212</v>
+        <v>391</v>
       </c>
       <c r="K35" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="L35" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="M35" t="n">
-        <v>8.970000000000001</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="36">
@@ -2042,37 +2042,37 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>310</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>18.6</v>
+        <v>18.52</v>
       </c>
       <c r="I36" t="n">
-        <v>4491</v>
+        <v>136</v>
       </c>
       <c r="J36" t="n">
-        <v>8061</v>
+        <v>322</v>
       </c>
       <c r="K36" t="n">
-        <v>3.39</v>
+        <v>2.48</v>
       </c>
       <c r="L36" t="n">
-        <v>382</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>8.99</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="37">
@@ -2087,37 +2087,37 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>20.36</v>
+        <v>18.79</v>
       </c>
       <c r="I37" t="n">
-        <v>4368</v>
+        <v>117</v>
       </c>
       <c r="J37" t="n">
-        <v>7661</v>
+        <v>271</v>
       </c>
       <c r="K37" t="n">
-        <v>3.46</v>
+        <v>2.57</v>
       </c>
       <c r="L37" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>9.18</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="38">
@@ -2132,37 +2132,37 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>28.37</v>
+        <v>24.51</v>
       </c>
       <c r="I38" t="n">
-        <v>4807</v>
+        <v>156</v>
       </c>
       <c r="J38" t="n">
-        <v>8473</v>
+        <v>316</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="L38" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>8.94</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="39">
@@ -2177,37 +2177,37 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.79</v>
+        <v>0.44</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>23.92</v>
+        <v>22.38</v>
       </c>
       <c r="I39" t="n">
-        <v>4361</v>
+        <v>119</v>
       </c>
       <c r="J39" t="n">
-        <v>7744</v>
+        <v>283</v>
       </c>
       <c r="K39" t="n">
-        <v>3.43</v>
+        <v>2.52</v>
       </c>
       <c r="L39" t="n">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>9.02</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="40">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7</v>
+        <v>0.46</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>21.84</v>
+        <v>17.59</v>
       </c>
       <c r="I40" t="n">
-        <v>4729</v>
+        <v>177</v>
       </c>
       <c r="J40" t="n">
-        <v>8509</v>
+        <v>407</v>
       </c>
       <c r="K40" t="n">
-        <v>3.37</v>
+        <v>2.53</v>
       </c>
       <c r="L40" t="n">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="M40" t="n">
-        <v>8.85</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="41">
@@ -2267,37 +2267,37 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
-        <v>24.61</v>
+        <v>19.73</v>
       </c>
       <c r="I41" t="n">
-        <v>4691</v>
+        <v>152</v>
       </c>
       <c r="J41" t="n">
-        <v>8049</v>
+        <v>327</v>
       </c>
       <c r="K41" t="n">
-        <v>3.48</v>
+        <v>2.63</v>
       </c>
       <c r="L41" t="n">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>9.1</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="42">
@@ -2312,37 +2312,37 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="H42" t="n">
-        <v>20.34</v>
+        <v>21.8</v>
       </c>
       <c r="I42" t="n">
-        <v>5182</v>
+        <v>168</v>
       </c>
       <c r="J42" t="n">
-        <v>9148</v>
+        <v>365</v>
       </c>
       <c r="K42" t="n">
-        <v>3.38</v>
+        <v>2.61</v>
       </c>
       <c r="L42" t="n">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="43">
@@ -2357,37 +2357,37 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="H43" t="n">
-        <v>18.12</v>
+        <v>17.32</v>
       </c>
       <c r="I43" t="n">
-        <v>4563</v>
+        <v>134</v>
       </c>
       <c r="J43" t="n">
-        <v>8237</v>
+        <v>315</v>
       </c>
       <c r="K43" t="n">
-        <v>3.37</v>
+        <v>2.49</v>
       </c>
       <c r="L43" t="n">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>8.859999999999999</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="44">
@@ -2402,37 +2402,37 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17</v>
+      </c>
+      <c r="H44" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="I44" t="n">
+        <v>156</v>
+      </c>
+      <c r="J44" t="n">
+        <v>335</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L44" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>258</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4664</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8136</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="L44" t="n">
-        <v>424</v>
-      </c>
       <c r="M44" t="n">
-        <v>9.02</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="45">
@@ -2447,37 +2447,37 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>15.64</v>
+        <v>12.72</v>
       </c>
       <c r="I45" t="n">
-        <v>4469</v>
+        <v>150</v>
       </c>
       <c r="J45" t="n">
-        <v>8105</v>
+        <v>369</v>
       </c>
       <c r="K45" t="n">
-        <v>3.36</v>
+        <v>2.4</v>
       </c>
       <c r="L45" t="n">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="M45" t="n">
-        <v>8.859999999999999</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="46">
@@ -2492,37 +2492,37 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>388</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>432</v>
+        <v>39</v>
       </c>
       <c r="H46" t="n">
-        <v>12.66</v>
+        <v>11.25</v>
       </c>
       <c r="I46" t="n">
-        <v>4606</v>
+        <v>159</v>
       </c>
       <c r="J46" t="n">
-        <v>8393</v>
+        <v>390</v>
       </c>
       <c r="K46" t="n">
-        <v>3.31</v>
+        <v>2.36</v>
       </c>
       <c r="L46" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
-        <v>8.73</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="47">
@@ -2537,37 +2537,37 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>581</v>
+        <v>24</v>
       </c>
       <c r="H47" t="n">
-        <v>12.51</v>
+        <v>16.57</v>
       </c>
       <c r="I47" t="n">
-        <v>5809</v>
+        <v>177</v>
       </c>
       <c r="J47" t="n">
-        <v>11131</v>
+        <v>399</v>
       </c>
       <c r="K47" t="n">
-        <v>3.14</v>
+        <v>2.51</v>
       </c>
       <c r="L47" t="n">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="M47" t="n">
-        <v>8.43</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="48">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="H48" t="n">
-        <v>20.49</v>
+        <v>19.61</v>
       </c>
       <c r="I48" t="n">
-        <v>4870</v>
+        <v>147</v>
       </c>
       <c r="J48" t="n">
-        <v>8676</v>
+        <v>318</v>
       </c>
       <c r="K48" t="n">
-        <v>3.37</v>
+        <v>2.53</v>
       </c>
       <c r="L48" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>8.9</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="49">
@@ -2627,2935 +2627,2935 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>25.17</v>
+        <v>24.5</v>
       </c>
       <c r="I49" t="n">
-        <v>5086</v>
+        <v>116</v>
       </c>
       <c r="J49" t="n">
-        <v>9165</v>
+        <v>246</v>
       </c>
       <c r="K49" t="n">
-        <v>3.32</v>
+        <v>2.59</v>
       </c>
       <c r="L49" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>8.81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>bctech2060</t>
+          <t>bctech2059</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
+          <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>324</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>24.96</v>
+        <v>19.83</v>
       </c>
       <c r="I50" t="n">
-        <v>4569</v>
+        <v>109</v>
       </c>
       <c r="J50" t="n">
-        <v>7969</v>
+        <v>232</v>
       </c>
       <c r="K50" t="n">
-        <v>3.46</v>
+        <v>2.62</v>
       </c>
       <c r="L50" t="n">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>9.08</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bctech2061</t>
+          <t>bctech2060</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
+          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>15.59</v>
+        <v>19.67</v>
       </c>
       <c r="I51" t="n">
-        <v>4959</v>
+        <v>118</v>
       </c>
       <c r="J51" t="n">
-        <v>9360</v>
+        <v>240</v>
       </c>
       <c r="K51" t="n">
-        <v>3.24</v>
+        <v>2.66</v>
       </c>
       <c r="L51" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>8.69</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bctech2062</t>
+          <t>bctech2061</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
+          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>18.18</v>
+        <v>18.91</v>
       </c>
       <c r="I52" t="n">
-        <v>4689</v>
+        <v>149</v>
       </c>
       <c r="J52" t="n">
-        <v>8939</v>
+        <v>309</v>
       </c>
       <c r="K52" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
       <c r="L52" t="n">
-        <v>453</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>8.640000000000001</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bctech2063</t>
+          <t>bctech2062</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="H53" t="n">
-        <v>16.13</v>
+        <v>16.59</v>
       </c>
       <c r="I53" t="n">
-        <v>4728</v>
+        <v>140</v>
       </c>
       <c r="J53" t="n">
-        <v>9019</v>
+        <v>356</v>
       </c>
       <c r="K53" t="n">
-        <v>3.24</v>
+        <v>2.37</v>
       </c>
       <c r="L53" t="n">
-        <v>509</v>
+        <v>12</v>
       </c>
       <c r="M53" t="n">
-        <v>8.619999999999999</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bctech2064</t>
+          <t>bctech2063</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
+          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.73</v>
+        <v>0.44</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>17.55</v>
+        <v>19.84</v>
       </c>
       <c r="I54" t="n">
-        <v>4688</v>
+        <v>114</v>
       </c>
       <c r="J54" t="n">
-        <v>8181</v>
+        <v>251</v>
       </c>
       <c r="K54" t="n">
-        <v>3.43</v>
+        <v>2.58</v>
       </c>
       <c r="L54" t="n">
-        <v>377</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>9.039999999999999</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>bctech2065</t>
+          <t>bctech2064</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
+          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>0.89</v>
+        <v>0.26</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="H55" t="n">
-        <v>22.2</v>
+        <v>14.67</v>
       </c>
       <c r="I55" t="n">
-        <v>4635</v>
+        <v>176</v>
       </c>
       <c r="J55" t="n">
-        <v>8363</v>
+        <v>363</v>
       </c>
       <c r="K55" t="n">
-        <v>3.37</v>
+        <v>2.6</v>
       </c>
       <c r="L55" t="n">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="M55" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bctech2066</t>
+          <t>bctech2065</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
+          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>0.79</v>
+        <v>0.48</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>27.73</v>
+        <v>19.14</v>
       </c>
       <c r="I56" t="n">
-        <v>4404</v>
+        <v>159</v>
       </c>
       <c r="J56" t="n">
-        <v>7543</v>
+        <v>391</v>
       </c>
       <c r="K56" t="n">
-        <v>3.52</v>
+        <v>2.47</v>
       </c>
       <c r="L56" t="n">
-        <v>348</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>9.220000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bctech2067</t>
+          <t>bctech2066</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
+          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>0.78</v>
+        <v>0.27</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>18.74</v>
+        <v>21.38</v>
       </c>
       <c r="I57" t="n">
-        <v>4713</v>
+        <v>134</v>
       </c>
       <c r="J57" t="n">
-        <v>8478</v>
+        <v>292</v>
       </c>
       <c r="K57" t="n">
-        <v>3.36</v>
+        <v>2.64</v>
       </c>
       <c r="L57" t="n">
-        <v>417</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>8.94</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bctech2068</t>
+          <t>bctech2067</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
+          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="D58" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>0.85</v>
+        <v>0.52</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>17.37</v>
+        <v>17.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4588</v>
+        <v>155</v>
       </c>
       <c r="J58" t="n">
-        <v>8190</v>
+        <v>370</v>
       </c>
       <c r="K58" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="L58" t="n">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="M58" t="n">
-        <v>8.91</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bctech2069</t>
+          <t>bctech2068</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="H59" t="n">
-        <v>23.65</v>
+        <v>14.8</v>
       </c>
       <c r="I59" t="n">
-        <v>4345</v>
+        <v>164</v>
       </c>
       <c r="J59" t="n">
-        <v>7365</v>
+        <v>394</v>
       </c>
       <c r="K59" t="n">
-        <v>3.55</v>
+        <v>2.54</v>
       </c>
       <c r="L59" t="n">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="M59" t="n">
-        <v>9.34</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bctech2071</t>
+          <t>bctech2069</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
+          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>327</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>22.49</v>
+        <v>17.23</v>
       </c>
       <c r="I60" t="n">
-        <v>4301</v>
+        <v>135</v>
       </c>
       <c r="J60" t="n">
-        <v>7341</v>
+        <v>269</v>
       </c>
       <c r="K60" t="n">
-        <v>3.54</v>
+        <v>2.66</v>
       </c>
       <c r="L60" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>9.32</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bctech2072</t>
+          <t>bctech2070</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>21.54</v>
+        <v>20.49</v>
       </c>
       <c r="I61" t="n">
-        <v>4304</v>
+        <v>106</v>
       </c>
       <c r="J61" t="n">
-        <v>7441</v>
+        <v>231</v>
       </c>
       <c r="K61" t="n">
-        <v>3.51</v>
+        <v>2.61</v>
       </c>
       <c r="L61" t="n">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bctech2073</t>
+          <t>bctech2071</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>304</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
         <v>10</v>
       </c>
-      <c r="E62" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>167</v>
-      </c>
       <c r="H62" t="n">
-        <v>25.87</v>
+        <v>21.68</v>
       </c>
       <c r="I62" t="n">
-        <v>4262</v>
+        <v>114</v>
       </c>
       <c r="J62" t="n">
-        <v>7178</v>
+        <v>242</v>
       </c>
       <c r="K62" t="n">
-        <v>3.59</v>
+        <v>2.65</v>
       </c>
       <c r="L62" t="n">
-        <v>341</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>9.43</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bctech2074</t>
+          <t>bctech2072</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>19.92</v>
+        <v>19.5</v>
       </c>
       <c r="I63" t="n">
-        <v>4461</v>
+        <v>118</v>
       </c>
       <c r="J63" t="n">
-        <v>7506</v>
+        <v>248</v>
       </c>
       <c r="K63" t="n">
-        <v>3.52</v>
+        <v>2.64</v>
       </c>
       <c r="L63" t="n">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>9.27</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bctech2075</t>
+          <t>bctech2073</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
+          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>343</v>
+        <v>14</v>
       </c>
       <c r="D64" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>19.6</v>
+        <v>20.89</v>
       </c>
       <c r="I64" t="n">
-        <v>4567</v>
+        <v>114</v>
       </c>
       <c r="J64" t="n">
-        <v>8168</v>
+        <v>236</v>
       </c>
       <c r="K64" t="n">
-        <v>3.41</v>
+        <v>2.67</v>
       </c>
       <c r="L64" t="n">
-        <v>395</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>8.98</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bctech2076</t>
+          <t>bctech2074</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
+          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>392</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="H65" t="n">
-        <v>17.31</v>
+        <v>17.28</v>
       </c>
       <c r="I65" t="n">
-        <v>4842</v>
+        <v>141</v>
       </c>
       <c r="J65" t="n">
-        <v>8463</v>
+        <v>273</v>
       </c>
       <c r="K65" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L65" t="n">
-        <v>411</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
-        <v>8.98</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bctech2077</t>
+          <t>bctech2075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
+          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="H66" t="n">
-        <v>21.3</v>
+        <v>15.28</v>
       </c>
       <c r="I66" t="n">
-        <v>4809</v>
+        <v>143</v>
       </c>
       <c r="J66" t="n">
-        <v>8510</v>
+        <v>345</v>
       </c>
       <c r="K66" t="n">
-        <v>3.37</v>
+        <v>2.5</v>
       </c>
       <c r="L66" t="n">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="M66" t="n">
-        <v>8.859999999999999</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bctech2078</t>
+          <t>bctech2076</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-transformation/</t>
+          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="H67" t="n">
-        <v>17.12</v>
+        <v>15.71</v>
       </c>
       <c r="I67" t="n">
-        <v>4635</v>
+        <v>177</v>
       </c>
       <c r="J67" t="n">
-        <v>8675</v>
+        <v>379</v>
       </c>
       <c r="K67" t="n">
-        <v>3.3</v>
+        <v>2.61</v>
       </c>
       <c r="L67" t="n">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="M67" t="n">
-        <v>8.75</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bctech2079</t>
+          <t>bctech2077</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
+          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>20</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="I68" t="n">
+        <v>184</v>
+      </c>
+      <c r="J68" t="n">
+        <v>396</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L68" t="n">
         <v>12</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>263</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4770</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8170</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L68" t="n">
-        <v>425</v>
-      </c>
       <c r="M68" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bctech2080</t>
+          <t>bctech2078</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
+          <t>https://insights.blackcoffer.com/data-transformation/</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29</v>
+      </c>
+      <c r="H69" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="I69" t="n">
+        <v>157</v>
+      </c>
+      <c r="J69" t="n">
+        <v>431</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L69" t="n">
         <v>13</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>204</v>
-      </c>
-      <c r="H69" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4574</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8009</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="L69" t="n">
-        <v>369</v>
-      </c>
       <c r="M69" t="n">
-        <v>9.1</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bctech2081</t>
+          <t>bctech2079</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
+          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="D70" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>406</v>
+        <v>23</v>
       </c>
       <c r="H70" t="n">
-        <v>15.83</v>
+        <v>15.25</v>
       </c>
       <c r="I70" t="n">
-        <v>5783</v>
+        <v>196</v>
       </c>
       <c r="J70" t="n">
-        <v>10354</v>
+        <v>388</v>
       </c>
       <c r="K70" t="n">
-        <v>3.27</v>
+        <v>2.64</v>
       </c>
       <c r="L70" t="n">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="M70" t="n">
-        <v>8.699999999999999</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bctech2082</t>
+          <t>bctech2080</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
+          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="H71" t="n">
-        <v>21.36</v>
+        <v>19.67</v>
       </c>
       <c r="I71" t="n">
-        <v>4624</v>
+        <v>160</v>
       </c>
       <c r="J71" t="n">
-        <v>8571</v>
+        <v>349</v>
       </c>
       <c r="K71" t="n">
-        <v>3.34</v>
+        <v>2.58</v>
       </c>
       <c r="L71" t="n">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="M71" t="n">
-        <v>8.890000000000001</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bctech2083</t>
+          <t>bctech2081</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
+          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>0.98</v>
+        <v>0.64</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="H72" t="n">
-        <v>20.72</v>
+        <v>16.15</v>
       </c>
       <c r="I72" t="n">
-        <v>4625</v>
+        <v>301</v>
       </c>
       <c r="J72" t="n">
-        <v>8153</v>
+        <v>623</v>
       </c>
       <c r="K72" t="n">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
       <c r="L72" t="n">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="M72" t="n">
-        <v>9.1</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bctech2084</t>
+          <t>bctech2082</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
+          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="H73" t="n">
-        <v>21.85</v>
+        <v>26.15</v>
       </c>
       <c r="I73" t="n">
-        <v>4137</v>
+        <v>129</v>
       </c>
       <c r="J73" t="n">
-        <v>7454</v>
+        <v>305</v>
       </c>
       <c r="K73" t="n">
-        <v>3.45</v>
+        <v>2.51</v>
       </c>
       <c r="L73" t="n">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>9.08</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bctech2085</t>
+          <t>bctech2083</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
+          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
-        <v>23.33</v>
+        <v>17.82</v>
       </c>
       <c r="I74" t="n">
-        <v>4561</v>
+        <v>164</v>
       </c>
       <c r="J74" t="n">
-        <v>8175</v>
+        <v>373</v>
       </c>
       <c r="K74" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="L74" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>9</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bctech2086</t>
+          <t>bctech2084</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/medical-classification/</t>
+          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>21.71</v>
+        <v>32.13</v>
       </c>
       <c r="I75" t="n">
-        <v>4738</v>
+        <v>96</v>
       </c>
       <c r="J75" t="n">
-        <v>8469</v>
+        <v>213</v>
       </c>
       <c r="K75" t="n">
-        <v>3.36</v>
+        <v>2.64</v>
       </c>
       <c r="L75" t="n">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>8.91</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bctech2087</t>
+          <t>bctech2085</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
+          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>22.99</v>
+        <v>17.48</v>
       </c>
       <c r="I76" t="n">
-        <v>4494</v>
+        <v>151</v>
       </c>
       <c r="J76" t="n">
-        <v>8105</v>
+        <v>341</v>
       </c>
       <c r="K76" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="L76" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>8.970000000000001</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bctech2088</t>
+          <t>bctech2086</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
+          <t>https://insights.blackcoffer.com/medical-classification/</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="H77" t="n">
-        <v>22.36</v>
+        <v>18.8</v>
       </c>
       <c r="I77" t="n">
-        <v>4653</v>
+        <v>155</v>
       </c>
       <c r="J77" t="n">
-        <v>7827</v>
+        <v>330</v>
       </c>
       <c r="K77" t="n">
-        <v>3.51</v>
+        <v>2.56</v>
       </c>
       <c r="L77" t="n">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
-        <v>9.140000000000001</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>bctech2089</t>
+          <t>bctech2087</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
+          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="I78" t="n">
         <v>121</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>259</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4568</v>
-      </c>
       <c r="J78" t="n">
-        <v>8177</v>
+        <v>241</v>
       </c>
       <c r="K78" t="n">
-        <v>3.39</v>
+        <v>2.74</v>
       </c>
       <c r="L78" t="n">
-        <v>419</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>8.92</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bctech2090</t>
+          <t>bctech2088</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
+          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>300</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>24.52</v>
+        <v>19.78</v>
       </c>
       <c r="I79" t="n">
-        <v>4806</v>
+        <v>147</v>
       </c>
       <c r="J79" t="n">
-        <v>8719</v>
+        <v>271</v>
       </c>
       <c r="K79" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="L79" t="n">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>8.85</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bctech2091</t>
+          <t>bctech2089</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>0.82</v>
+        <v>-0.25</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="H80" t="n">
-        <v>21.4</v>
+        <v>18.02</v>
       </c>
       <c r="I80" t="n">
-        <v>4722</v>
+        <v>133</v>
       </c>
       <c r="J80" t="n">
-        <v>8253</v>
+        <v>323</v>
       </c>
       <c r="K80" t="n">
-        <v>3.41</v>
+        <v>2.48</v>
       </c>
       <c r="L80" t="n">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="M80" t="n">
-        <v>9.08</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bctech2092</t>
+          <t>bctech2090</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
+          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>345</v>
+        <v>9</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="H81" t="n">
-        <v>26.29</v>
+        <v>23.01</v>
       </c>
       <c r="I81" t="n">
-        <v>4342</v>
+        <v>152</v>
       </c>
       <c r="J81" t="n">
-        <v>7634</v>
+        <v>348</v>
       </c>
       <c r="K81" t="n">
-        <v>3.46</v>
+        <v>2.47</v>
       </c>
       <c r="L81" t="n">
-        <v>334</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>9.17</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bctech2093</t>
+          <t>bctech2091</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
+          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>307</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="H82" t="n">
-        <v>21.86</v>
+        <v>25.57</v>
       </c>
       <c r="I82" t="n">
-        <v>4422</v>
+        <v>98</v>
       </c>
       <c r="J82" t="n">
-        <v>7860</v>
+        <v>210</v>
       </c>
       <c r="K82" t="n">
-        <v>3.43</v>
+        <v>2.64</v>
       </c>
       <c r="L82" t="n">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>9.07</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bctech2094</t>
+          <t>bctech2092</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
+          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="D83" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>22.26</v>
+        <v>27.56</v>
       </c>
       <c r="I83" t="n">
-        <v>4517</v>
+        <v>120</v>
       </c>
       <c r="J83" t="n">
-        <v>8139</v>
+        <v>274</v>
       </c>
       <c r="K83" t="n">
-        <v>3.42</v>
+        <v>2.59</v>
       </c>
       <c r="L83" t="n">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>9.039999999999999</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bctech2095</t>
+          <t>bctech2093</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
+          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>0.87</v>
+        <v>0.25</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="H84" t="n">
-        <v>22.45</v>
+        <v>17.45</v>
       </c>
       <c r="I84" t="n">
-        <v>4412</v>
+        <v>135</v>
       </c>
       <c r="J84" t="n">
-        <v>7710</v>
+        <v>327</v>
       </c>
       <c r="K84" t="n">
-        <v>3.47</v>
+        <v>2.56</v>
       </c>
       <c r="L84" t="n">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>9.140000000000001</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bctech2096</t>
+          <t>bctech2094</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
+          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="H85" t="n">
-        <v>29.14</v>
+        <v>17.45</v>
       </c>
       <c r="I85" t="n">
-        <v>4464</v>
+        <v>145</v>
       </c>
       <c r="J85" t="n">
-        <v>7726</v>
+        <v>358</v>
       </c>
       <c r="K85" t="n">
-        <v>3.48</v>
+        <v>2.53</v>
       </c>
       <c r="L85" t="n">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>9.15</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bctech2097</t>
+          <t>bctech2095</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
+          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H86" t="n">
-        <v>20.25</v>
+        <v>21.33</v>
       </c>
       <c r="I86" t="n">
-        <v>4566</v>
+        <v>130</v>
       </c>
       <c r="J86" t="n">
-        <v>7809</v>
+        <v>296</v>
       </c>
       <c r="K86" t="n">
-        <v>3.49</v>
+        <v>2.58</v>
       </c>
       <c r="L86" t="n">
-        <v>343</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>9.210000000000001</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bctech2098</t>
+          <t>bctech2096</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
+          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>16.5</v>
+        <v>33.41</v>
       </c>
       <c r="I87" t="n">
-        <v>4601</v>
+        <v>109</v>
       </c>
       <c r="J87" t="n">
-        <v>8281</v>
+        <v>224</v>
       </c>
       <c r="K87" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="L87" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
-        <v>9.06</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bctech2099</t>
+          <t>bctech2097</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/web-data-connector/</t>
+          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>14.92</v>
+        <v>19.2</v>
       </c>
       <c r="I88" t="n">
-        <v>4610</v>
+        <v>135</v>
       </c>
       <c r="J88" t="n">
-        <v>8287</v>
+        <v>274</v>
       </c>
       <c r="K88" t="n">
-        <v>3.39</v>
+        <v>2.63</v>
       </c>
       <c r="L88" t="n">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>8.970000000000001</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bctech2100</t>
+          <t>bctech2098</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
+          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="H89" t="n">
-        <v>34.58</v>
+        <v>17.38</v>
       </c>
       <c r="I89" t="n">
-        <v>4574</v>
+        <v>146</v>
       </c>
       <c r="J89" t="n">
-        <v>7896</v>
+        <v>333</v>
       </c>
       <c r="K89" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="L89" t="n">
-        <v>349</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>9.029999999999999</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bctech2101</t>
+          <t>bctech2099</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
+          <t>https://insights.blackcoffer.com/web-data-connector/</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
-        <v>29.77</v>
+        <v>18.22</v>
       </c>
       <c r="I90" t="n">
-        <v>4530</v>
+        <v>123</v>
       </c>
       <c r="J90" t="n">
-        <v>8113</v>
+        <v>277</v>
       </c>
       <c r="K90" t="n">
-        <v>3.39</v>
+        <v>2.57</v>
       </c>
       <c r="L90" t="n">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="M90" t="n">
-        <v>8.960000000000001</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bctech2102</t>
+          <t>bctech2100</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
+          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>467</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>0.93</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>15.96</v>
+        <v>36.15</v>
       </c>
       <c r="I91" t="n">
-        <v>5861</v>
+        <v>126</v>
       </c>
       <c r="J91" t="n">
-        <v>10553</v>
+        <v>257</v>
       </c>
       <c r="K91" t="n">
-        <v>3.2</v>
+        <v>2.61</v>
       </c>
       <c r="L91" t="n">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="M91" t="n">
-        <v>8.51</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bctech2103</t>
+          <t>bctech2101</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
+          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>490</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
+        <v>11</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="I92" t="n">
+        <v>132</v>
+      </c>
+      <c r="J92" t="n">
+        <v>293</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L92" t="n">
         <v>4</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>487</v>
-      </c>
-      <c r="H92" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5864</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10917</v>
-      </c>
-      <c r="K92" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="L92" t="n">
-        <v>351</v>
-      </c>
       <c r="M92" t="n">
-        <v>8.43</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bctech2104</t>
+          <t>bctech2102</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
+          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="H93" t="n">
-        <v>20.75</v>
+        <v>16.1</v>
       </c>
       <c r="I93" t="n">
-        <v>4523</v>
+        <v>303</v>
       </c>
       <c r="J93" t="n">
-        <v>7736</v>
+        <v>612</v>
       </c>
       <c r="K93" t="n">
-        <v>3.47</v>
+        <v>2.53</v>
       </c>
       <c r="L93" t="n">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>9.119999999999999</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bctech2105</t>
+          <t>bctech2103</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
+          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="D94" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="H94" t="n">
-        <v>21.44</v>
+        <v>15.75</v>
       </c>
       <c r="I94" t="n">
-        <v>4601</v>
+        <v>297</v>
       </c>
       <c r="J94" t="n">
-        <v>8312</v>
+        <v>639</v>
       </c>
       <c r="K94" t="n">
-        <v>3.39</v>
+        <v>2.53</v>
       </c>
       <c r="L94" t="n">
-        <v>348</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>8.94</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bctech2106</t>
+          <t>bctech2104</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>21.52</v>
+        <v>27.54</v>
       </c>
       <c r="I95" t="n">
-        <v>4428</v>
+        <v>104</v>
       </c>
       <c r="J95" t="n">
-        <v>7687</v>
+        <v>206</v>
       </c>
       <c r="K95" t="n">
-        <v>3.49</v>
+        <v>2.72</v>
       </c>
       <c r="L95" t="n">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>9.220000000000001</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bctech2107</t>
+          <t>bctech2105</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
+          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H96" t="n">
-        <v>21.01</v>
+        <v>16.95</v>
       </c>
       <c r="I96" t="n">
-        <v>4542</v>
+        <v>130</v>
       </c>
       <c r="J96" t="n">
-        <v>8266</v>
+        <v>327</v>
       </c>
       <c r="K96" t="n">
-        <v>3.4</v>
+        <v>2.48</v>
       </c>
       <c r="L96" t="n">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>9</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bctech2108</t>
+          <t>bctech2106</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
+          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>0.87</v>
+        <v>0.37</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="H97" t="n">
-        <v>23.08</v>
+        <v>21.44</v>
       </c>
       <c r="I97" t="n">
-        <v>4676</v>
+        <v>117</v>
       </c>
       <c r="J97" t="n">
-        <v>7830</v>
+        <v>269</v>
       </c>
       <c r="K97" t="n">
-        <v>3.52</v>
+        <v>2.58</v>
       </c>
       <c r="L97" t="n">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
-        <v>9.23</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bctech2109</t>
+          <t>bctech2107</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
+          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>0.77</v>
+        <v>0.16</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="H98" t="n">
-        <v>22.92</v>
+        <v>17.58</v>
       </c>
       <c r="I98" t="n">
-        <v>4964</v>
+        <v>130</v>
       </c>
       <c r="J98" t="n">
-        <v>8671</v>
+        <v>330</v>
       </c>
       <c r="K98" t="n">
-        <v>3.42</v>
+        <v>2.47</v>
       </c>
       <c r="L98" t="n">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>9.06</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bctech2110</t>
+          <t>bctech2108</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
+          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>314</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="H99" t="n">
-        <v>19.53</v>
+        <v>21.16</v>
       </c>
       <c r="I99" t="n">
-        <v>4447</v>
+        <v>152</v>
       </c>
       <c r="J99" t="n">
-        <v>7666</v>
+        <v>300</v>
       </c>
       <c r="K99" t="n">
-        <v>3.47</v>
+        <v>2.65</v>
       </c>
       <c r="L99" t="n">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="M99" t="n">
-        <v>9.08</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bctech2111</t>
+          <t>bctech2109</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
+          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>0.86</v>
+        <v>0.47</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="H100" t="n">
-        <v>18.3</v>
+        <v>19.99</v>
       </c>
       <c r="I100" t="n">
-        <v>4565</v>
+        <v>182</v>
       </c>
       <c r="J100" t="n">
-        <v>8100</v>
+        <v>366</v>
       </c>
       <c r="K100" t="n">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="L100" t="n">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="M100" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bctech2112</t>
+          <t>bctech2110</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
+          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="H101" t="n">
-        <v>24.41</v>
+        <v>15.81</v>
       </c>
       <c r="I101" t="n">
-        <v>4631</v>
+        <v>144</v>
       </c>
       <c r="J101" t="n">
-        <v>7832</v>
+        <v>296</v>
       </c>
       <c r="K101" t="n">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="L101" t="n">
-        <v>363</v>
+        <v>10</v>
       </c>
       <c r="M101" t="n">
-        <v>9.25</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bctech2113</t>
+          <t>bctech2111</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="H102" t="n">
-        <v>20.78</v>
+        <v>16.53</v>
       </c>
       <c r="I102" t="n">
-        <v>4773</v>
+        <v>137</v>
       </c>
       <c r="J102" t="n">
-        <v>8562</v>
+        <v>341</v>
       </c>
       <c r="K102" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="L102" t="n">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="M102" t="n">
-        <v>8.890000000000001</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bctech2114</t>
+          <t>bctech2112</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
+          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
-        <v>24.09</v>
+        <v>24.46</v>
       </c>
       <c r="I103" t="n">
-        <v>4336</v>
+        <v>116</v>
       </c>
       <c r="J103" t="n">
-        <v>7654</v>
+        <v>229</v>
       </c>
       <c r="K103" t="n">
-        <v>3.46</v>
+        <v>2.71</v>
       </c>
       <c r="L103" t="n">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
-        <v>9.16</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>bctech2115</t>
+          <t>bctech2113</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
+          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>608</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>509</v>
+        <v>15</v>
       </c>
       <c r="H104" t="n">
-        <v>13.17</v>
+        <v>19.14</v>
       </c>
       <c r="I104" t="n">
-        <v>5350</v>
+        <v>147</v>
       </c>
       <c r="J104" t="n">
-        <v>10279</v>
+        <v>326</v>
       </c>
       <c r="K104" t="n">
-        <v>3.19</v>
+        <v>2.58</v>
       </c>
       <c r="L104" t="n">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="M104" t="n">
-        <v>8.449999999999999</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>bctech2116</t>
+          <t>bctech2114</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
+          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>408</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>0.88</v>
+        <v>0.45</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
-        <v>17.45</v>
+        <v>33.66</v>
       </c>
       <c r="I105" t="n">
-        <v>4689</v>
+        <v>93</v>
       </c>
       <c r="J105" t="n">
-        <v>9135</v>
+        <v>182</v>
       </c>
       <c r="K105" t="n">
-        <v>3.21</v>
+        <v>2.73</v>
       </c>
       <c r="L105" t="n">
-        <v>468</v>
+        <v>2</v>
       </c>
       <c r="M105" t="n">
-        <v>8.5</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bctech2117</t>
+          <t>bctech2115</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="H106" t="n">
-        <v>19.63</v>
+        <v>13.34</v>
       </c>
       <c r="I106" t="n">
-        <v>4598</v>
+        <v>219</v>
       </c>
       <c r="J106" t="n">
-        <v>7958</v>
+        <v>512</v>
       </c>
       <c r="K106" t="n">
-        <v>3.42</v>
+        <v>2.47</v>
       </c>
       <c r="L106" t="n">
-        <v>333</v>
+        <v>5</v>
       </c>
       <c r="M106" t="n">
-        <v>8.98</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bctech2118</t>
+          <t>bctech2116</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
+          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="H107" t="n">
-        <v>29.96</v>
+        <v>16.71</v>
       </c>
       <c r="I107" t="n">
-        <v>4504</v>
+        <v>140</v>
       </c>
       <c r="J107" t="n">
-        <v>7745</v>
+        <v>357</v>
       </c>
       <c r="K107" t="n">
-        <v>3.49</v>
+        <v>2.37</v>
       </c>
       <c r="L107" t="n">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="M107" t="n">
-        <v>9.130000000000001</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bctech2119</t>
+          <t>bctech2117</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
+          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>0.76</v>
+        <v>0.29</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="H108" t="n">
-        <v>18.75</v>
+        <v>15.94</v>
       </c>
       <c r="I108" t="n">
-        <v>4422</v>
+        <v>161</v>
       </c>
       <c r="J108" t="n">
-        <v>7712</v>
+        <v>341</v>
       </c>
       <c r="K108" t="n">
-        <v>3.46</v>
+        <v>2.5</v>
       </c>
       <c r="L108" t="n">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>9.09</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bctech2120</t>
+          <t>bctech2118</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
+          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="D109" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>22.68</v>
+        <v>22.53</v>
       </c>
       <c r="I109" t="n">
-        <v>4752</v>
+        <v>123</v>
       </c>
       <c r="J109" t="n">
-        <v>8994</v>
+        <v>251</v>
       </c>
       <c r="K109" t="n">
-        <v>3.27</v>
+        <v>2.67</v>
       </c>
       <c r="L109" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>8.67</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bctech2121</t>
+          <t>bctech2119</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
+          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="H110" t="n">
-        <v>20.23</v>
+        <v>14.2</v>
       </c>
       <c r="I110" t="n">
-        <v>4702</v>
+        <v>145</v>
       </c>
       <c r="J110" t="n">
-        <v>8659</v>
+        <v>327</v>
       </c>
       <c r="K110" t="n">
-        <v>3.32</v>
+        <v>2.54</v>
       </c>
       <c r="L110" t="n">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="M110" t="n">
-        <v>8.75</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bctech2122</t>
+          <t>bctech2120</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
+          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="H111" t="n">
-        <v>21.28</v>
+        <v>19.51</v>
       </c>
       <c r="I111" t="n">
-        <v>4483</v>
+        <v>143</v>
       </c>
       <c r="J111" t="n">
-        <v>8058</v>
+        <v>351</v>
       </c>
       <c r="K111" t="n">
-        <v>3.4</v>
+        <v>2.47</v>
       </c>
       <c r="L111" t="n">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="M111" t="n">
-        <v>8.93</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bctech2123</t>
+          <t>bctech2121</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
+          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="H112" t="n">
-        <v>20.25</v>
+        <v>18.78</v>
       </c>
       <c r="I112" t="n">
-        <v>4750</v>
+        <v>182</v>
       </c>
       <c r="J112" t="n">
-        <v>9011</v>
+        <v>443</v>
       </c>
       <c r="K112" t="n">
-        <v>3.28</v>
+        <v>2.43</v>
       </c>
       <c r="L112" t="n">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="M112" t="n">
-        <v>8.68</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bctech2124</t>
+          <t>bctech2122</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
+          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E113" t="n">
-        <v>0.83</v>
+        <v>0.52</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="H113" t="n">
-        <v>23.48</v>
+        <v>17.55</v>
       </c>
       <c r="I113" t="n">
-        <v>4306</v>
+        <v>127</v>
       </c>
       <c r="J113" t="n">
-        <v>7403</v>
+        <v>319</v>
       </c>
       <c r="K113" t="n">
-        <v>3.51</v>
+        <v>2.49</v>
       </c>
       <c r="L113" t="n">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="M113" t="n">
-        <v>9.220000000000001</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bctech2125</t>
+          <t>bctech2123</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
+          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>343</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
         <v>0.8</v>
@@ -5564,1465 +5564,1555 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="H114" t="n">
-        <v>25.16</v>
+        <v>18.23</v>
       </c>
       <c r="I114" t="n">
-        <v>4773</v>
+        <v>146</v>
       </c>
       <c r="J114" t="n">
-        <v>8120</v>
+        <v>359</v>
       </c>
       <c r="K114" t="n">
-        <v>3.52</v>
+        <v>2.49</v>
       </c>
       <c r="L114" t="n">
-        <v>333</v>
+        <v>7</v>
       </c>
       <c r="M114" t="n">
-        <v>9.23</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>bctech2126</t>
+          <t>bctech2124</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
+          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="H115" t="n">
-        <v>17.35</v>
+        <v>22.9</v>
       </c>
       <c r="I115" t="n">
-        <v>5044</v>
+        <v>104</v>
       </c>
       <c r="J115" t="n">
-        <v>9597</v>
+        <v>210</v>
       </c>
       <c r="K115" t="n">
-        <v>3.19</v>
+        <v>2.66</v>
       </c>
       <c r="L115" t="n">
-        <v>389</v>
+        <v>4</v>
       </c>
       <c r="M115" t="n">
-        <v>8.539999999999999</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>bctech2127</t>
+          <t>bctech2125</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
+          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>472</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="H116" t="n">
-        <v>16.1</v>
+        <v>19.53</v>
       </c>
       <c r="I116" t="n">
-        <v>6414</v>
+        <v>138</v>
       </c>
       <c r="J116" t="n">
-        <v>12222</v>
+        <v>277</v>
       </c>
       <c r="K116" t="n">
-        <v>3.14</v>
+        <v>2.76</v>
       </c>
       <c r="L116" t="n">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="M116" t="n">
-        <v>8.25</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bctech2128</t>
+          <t>bctech2126</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
+          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>0.89</v>
+        <v>0.23</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>19.99</v>
+        <v>26.64</v>
       </c>
       <c r="I117" t="n">
-        <v>5432</v>
+        <v>120</v>
       </c>
       <c r="J117" t="n">
-        <v>9878</v>
+        <v>242</v>
       </c>
       <c r="K117" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="L117" t="n">
-        <v>378</v>
+        <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>8.789999999999999</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>bctech2129</t>
+          <t>bctech2127</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
+          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
       </c>
       <c r="G118" t="n">
+        <v>14</v>
+      </c>
+      <c r="H118" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="I118" t="n">
         <v>167</v>
       </c>
-      <c r="H118" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4136</v>
-      </c>
       <c r="J118" t="n">
-        <v>6955</v>
+        <v>348</v>
       </c>
       <c r="K118" t="n">
-        <v>3.57</v>
+        <v>2.6</v>
       </c>
       <c r="L118" t="n">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>9.34</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bctech2130</t>
+          <t>bctech2128</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
+          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="H119" t="n">
-        <v>25.93</v>
+        <v>16.04</v>
       </c>
       <c r="I119" t="n">
-        <v>4406</v>
+        <v>146</v>
       </c>
       <c r="J119" t="n">
-        <v>7283</v>
+        <v>322</v>
       </c>
       <c r="K119" t="n">
-        <v>3.59</v>
+        <v>2.57</v>
       </c>
       <c r="L119" t="n">
-        <v>333</v>
+        <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>9.41</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bctech2131</t>
+          <t>bctech2129</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
+          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="H120" t="n">
-        <v>24.56</v>
+        <v>29.43</v>
       </c>
       <c r="I120" t="n">
-        <v>4352</v>
+        <v>92</v>
       </c>
       <c r="J120" t="n">
-        <v>7405</v>
+        <v>186</v>
       </c>
       <c r="K120" t="n">
-        <v>3.53</v>
+        <v>2.61</v>
       </c>
       <c r="L120" t="n">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="M120" t="n">
-        <v>9.220000000000001</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bctech2132</t>
+          <t>bctech2130</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="H121" t="n">
-        <v>32</v>
+        <v>20.2</v>
       </c>
       <c r="I121" t="n">
-        <v>4294</v>
+        <v>120</v>
       </c>
       <c r="J121" t="n">
-        <v>7418</v>
+        <v>227</v>
       </c>
       <c r="K121" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="L121" t="n">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="M121" t="n">
-        <v>9.27</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bctech2133</t>
+          <t>bctech2131</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
+          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="H122" t="n">
-        <v>26.42</v>
+        <v>21.85</v>
       </c>
       <c r="I122" t="n">
-        <v>4364</v>
+        <v>111</v>
       </c>
       <c r="J122" t="n">
-        <v>7133</v>
+        <v>233</v>
       </c>
       <c r="K122" t="n">
-        <v>3.61</v>
+        <v>2.66</v>
       </c>
       <c r="L122" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M122" t="n">
-        <v>9.460000000000001</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bctech2134</t>
+          <t>bctech2132</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
-        <v>25.35</v>
+        <v>27.87</v>
       </c>
       <c r="I123" t="n">
-        <v>4413</v>
+        <v>100</v>
       </c>
       <c r="J123" t="n">
-        <v>7302</v>
+        <v>215</v>
       </c>
       <c r="K123" t="n">
-        <v>3.6</v>
+        <v>2.64</v>
       </c>
       <c r="L123" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>9.41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bctech2135</t>
+          <t>bctech2133</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
+          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="H124" t="n">
-        <v>18.76</v>
+        <v>20.43</v>
       </c>
       <c r="I124" t="n">
-        <v>4959</v>
+        <v>114</v>
       </c>
       <c r="J124" t="n">
-        <v>9188</v>
+        <v>218</v>
       </c>
       <c r="K124" t="n">
-        <v>3.29</v>
+        <v>2.69</v>
       </c>
       <c r="L124" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>8.720000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bctech2136</t>
+          <t>bctech2134</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="H125" t="n">
-        <v>23.76</v>
+        <v>21.25</v>
       </c>
       <c r="I125" t="n">
-        <v>4268</v>
+        <v>111</v>
       </c>
       <c r="J125" t="n">
-        <v>7203</v>
+        <v>213</v>
       </c>
       <c r="K125" t="n">
-        <v>3.56</v>
+        <v>2.7</v>
       </c>
       <c r="L125" t="n">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>9.33</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bctech2137</t>
+          <t>bctech2135</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
+          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="H126" t="n">
-        <v>21.52</v>
+        <v>17.4</v>
       </c>
       <c r="I126" t="n">
-        <v>4964</v>
+        <v>149</v>
       </c>
       <c r="J126" t="n">
-        <v>8797</v>
+        <v>330</v>
       </c>
       <c r="K126" t="n">
-        <v>3.37</v>
+        <v>2.56</v>
       </c>
       <c r="L126" t="n">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="M126" t="n">
-        <v>8.85</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bctech2138</t>
+          <t>bctech2136</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
+          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="H127" t="n">
-        <v>27.06</v>
+        <v>19.69</v>
       </c>
       <c r="I127" t="n">
-        <v>4492</v>
+        <v>125</v>
       </c>
       <c r="J127" t="n">
-        <v>7721</v>
+        <v>253</v>
       </c>
       <c r="K127" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="L127" t="n">
-        <v>334</v>
+        <v>6</v>
       </c>
       <c r="M127" t="n">
-        <v>9.199999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bctech2139</t>
+          <t>bctech2137</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
+          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>373</v>
+        <v>10</v>
       </c>
       <c r="D128" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>0.89</v>
+        <v>-0.05</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="H128" t="n">
-        <v>18.51</v>
+        <v>19.67</v>
       </c>
       <c r="I128" t="n">
-        <v>4795</v>
+        <v>189</v>
       </c>
       <c r="J128" t="n">
-        <v>8271</v>
+        <v>407</v>
       </c>
       <c r="K128" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="L128" t="n">
-        <v>405</v>
+        <v>5</v>
       </c>
       <c r="M128" t="n">
-        <v>9.07</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bctech2140</t>
+          <t>bctech2138</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
+          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="D129" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E129" t="n">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="H129" t="n">
-        <v>19.06</v>
+        <v>19.58</v>
       </c>
       <c r="I129" t="n">
-        <v>4637</v>
+        <v>127</v>
       </c>
       <c r="J129" t="n">
-        <v>8472</v>
+        <v>287</v>
       </c>
       <c r="K129" t="n">
-        <v>3.33</v>
+        <v>2.57</v>
       </c>
       <c r="L129" t="n">
-        <v>391</v>
+        <v>3</v>
       </c>
       <c r="M129" t="n">
-        <v>8.84</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bctech2141</t>
+          <t>bctech2139</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
+          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="H130" t="n">
-        <v>21.31</v>
+        <v>17.51</v>
       </c>
       <c r="I130" t="n">
-        <v>4532</v>
+        <v>185</v>
       </c>
       <c r="J130" t="n">
-        <v>8105</v>
+        <v>367</v>
       </c>
       <c r="K130" t="n">
-        <v>3.41</v>
+        <v>2.73</v>
       </c>
       <c r="L130" t="n">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="M130" t="n">
-        <v>9.050000000000001</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>bctech2142</t>
+          <t>bctech2140</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
+          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="H131" t="n">
-        <v>20.77</v>
+        <v>17.83</v>
       </c>
       <c r="I131" t="n">
-        <v>4558</v>
+        <v>141</v>
       </c>
       <c r="J131" t="n">
-        <v>7964</v>
+        <v>325</v>
       </c>
       <c r="K131" t="n">
-        <v>3.43</v>
+        <v>2.54</v>
       </c>
       <c r="L131" t="n">
-        <v>383</v>
+        <v>9</v>
       </c>
       <c r="M131" t="n">
-        <v>9.09</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bctech2143</t>
+          <t>bctech2141</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
+          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="D132" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="H132" t="n">
-        <v>22.87</v>
+        <v>15.16</v>
       </c>
       <c r="I132" t="n">
-        <v>4442</v>
+        <v>145</v>
       </c>
       <c r="J132" t="n">
-        <v>7620</v>
+        <v>347</v>
       </c>
       <c r="K132" t="n">
-        <v>3.52</v>
+        <v>2.51</v>
       </c>
       <c r="L132" t="n">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
-        <v>9.210000000000001</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>bctech2144</t>
+          <t>bctech2142</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
+          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="H133" t="n">
-        <v>23.92</v>
+        <v>15.91</v>
       </c>
       <c r="I133" t="n">
-        <v>4409</v>
+        <v>150</v>
       </c>
       <c r="J133" t="n">
-        <v>7745</v>
+        <v>333</v>
       </c>
       <c r="K133" t="n">
-        <v>3.49</v>
+        <v>2.5</v>
       </c>
       <c r="L133" t="n">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="M133" t="n">
-        <v>9.19</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>bctech2145</t>
+          <t>bctech2143</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>297</v>
+        <v>10</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H134" t="n">
-        <v>22.67</v>
+        <v>21.75</v>
       </c>
       <c r="I134" t="n">
-        <v>4484</v>
+        <v>126</v>
       </c>
       <c r="J134" t="n">
-        <v>7562</v>
+        <v>263</v>
       </c>
       <c r="K134" t="n">
-        <v>3.53</v>
+        <v>2.62</v>
       </c>
       <c r="L134" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>9.26</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>bctech2146</t>
+          <t>bctech2144</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="H135" t="n">
-        <v>24.46</v>
+        <v>27.4</v>
       </c>
       <c r="I135" t="n">
-        <v>4475</v>
+        <v>116</v>
       </c>
       <c r="J135" t="n">
-        <v>7676</v>
+        <v>262</v>
       </c>
       <c r="K135" t="n">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="L135" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M135" t="n">
-        <v>9.199999999999999</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>bctech2147</t>
+          <t>bctech2145</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
+          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="H136" t="n">
-        <v>21.19</v>
+        <v>21.2</v>
       </c>
       <c r="I136" t="n">
-        <v>4386</v>
+        <v>124</v>
       </c>
       <c r="J136" t="n">
-        <v>7611</v>
+        <v>250</v>
       </c>
       <c r="K136" t="n">
-        <v>3.48</v>
+        <v>2.67</v>
       </c>
       <c r="L136" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
-        <v>9.130000000000001</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>bctech2148</t>
+          <t>bctech2146</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
+          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="H137" t="n">
-        <v>22.21</v>
+        <v>23.01</v>
       </c>
       <c r="I137" t="n">
-        <v>4372</v>
+        <v>126</v>
       </c>
       <c r="J137" t="n">
-        <v>7643</v>
+        <v>257</v>
       </c>
       <c r="K137" t="n">
-        <v>3.48</v>
+        <v>2.66</v>
       </c>
       <c r="L137" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M137" t="n">
-        <v>9.140000000000001</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>bctech2149</t>
+          <t>bctech2147</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
+          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="H138" t="n">
-        <v>21.66</v>
+        <v>20.24</v>
       </c>
       <c r="I138" t="n">
-        <v>4442</v>
+        <v>126</v>
       </c>
       <c r="J138" t="n">
-        <v>7668</v>
+        <v>254</v>
       </c>
       <c r="K138" t="n">
-        <v>3.49</v>
+        <v>2.67</v>
       </c>
       <c r="L138" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>9.140000000000001</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>bctech2150</t>
+          <t>bctech2148</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
+          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="H139" t="n">
-        <v>22.54</v>
+        <v>26.56</v>
       </c>
       <c r="I139" t="n">
-        <v>4638</v>
+        <v>111</v>
       </c>
       <c r="J139" t="n">
-        <v>8321</v>
+        <v>236</v>
       </c>
       <c r="K139" t="n">
-        <v>3.39</v>
+        <v>2.62</v>
       </c>
       <c r="L139" t="n">
-        <v>347</v>
+        <v>2</v>
       </c>
       <c r="M139" t="n">
-        <v>8.970000000000001</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bctech2151</t>
+          <t>bctech2149</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
+          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>485</v>
+        <v>8</v>
       </c>
       <c r="H140" t="n">
-        <v>13.71</v>
+        <v>23.95</v>
       </c>
       <c r="I140" t="n">
-        <v>5189</v>
+        <v>116</v>
       </c>
       <c r="J140" t="n">
-        <v>10406</v>
+        <v>237</v>
       </c>
       <c r="K140" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="L140" t="n">
-        <v>369</v>
+        <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>8.5</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>bctech2152</t>
+          <t>bctech2150</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
+          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="H141" t="n">
-        <v>18.22</v>
+        <v>20.89</v>
       </c>
       <c r="I141" t="n">
-        <v>5200</v>
+        <v>122</v>
       </c>
       <c r="J141" t="n">
-        <v>8970</v>
+        <v>271</v>
       </c>
       <c r="K141" t="n">
-        <v>3.42</v>
+        <v>2.52</v>
       </c>
       <c r="L141" t="n">
-        <v>356</v>
+        <v>4</v>
       </c>
       <c r="M141" t="n">
-        <v>9.039999999999999</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>bctech2153</t>
+          <t>bctech2151</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
+          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="D142" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E142" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>386</v>
+        <v>54</v>
       </c>
       <c r="H142" t="n">
-        <v>17.19</v>
+        <v>12.62</v>
       </c>
       <c r="I142" t="n">
-        <v>5425</v>
+        <v>245</v>
       </c>
       <c r="J142" t="n">
-        <v>10417</v>
+        <v>710</v>
       </c>
       <c r="K142" t="n">
-        <v>3.21</v>
+        <v>2.37</v>
       </c>
       <c r="L142" t="n">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="M142" t="n">
-        <v>8.539999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>bctech2154</t>
+          <t>bctech2152</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
+          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>408</v>
+        <v>16</v>
       </c>
       <c r="D143" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>545</v>
+        <v>25</v>
       </c>
       <c r="H143" t="n">
-        <v>14.61</v>
+        <v>16.16</v>
       </c>
       <c r="I143" t="n">
-        <v>6341</v>
+        <v>235</v>
       </c>
       <c r="J143" t="n">
-        <v>12251</v>
+        <v>448</v>
       </c>
       <c r="K143" t="n">
-        <v>3.11</v>
+        <v>2.68</v>
       </c>
       <c r="L143" t="n">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="M143" t="n">
-        <v>8.16</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>bctech2155</t>
+          <t>bctech2153</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
+          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>333</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="H144" t="n">
-        <v>19.22</v>
+        <v>15.98</v>
       </c>
       <c r="I144" t="n">
-        <v>4527</v>
+        <v>293</v>
       </c>
       <c r="J144" t="n">
-        <v>8107</v>
+        <v>692</v>
       </c>
       <c r="K144" t="n">
-        <v>3.42</v>
+        <v>2.49</v>
       </c>
       <c r="L144" t="n">
-        <v>425</v>
+        <v>5</v>
       </c>
       <c r="M144" t="n">
-        <v>8.949999999999999</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bctech2156</t>
+          <t>bctech2154</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
+          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E145" t="n">
-        <v>0.91</v>
+        <v>0.14</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="H145" t="n">
-        <v>31.22</v>
+        <v>13.32</v>
       </c>
       <c r="I145" t="n">
-        <v>4244</v>
+        <v>425</v>
       </c>
       <c r="J145" t="n">
-        <v>7565</v>
+        <v>1004</v>
       </c>
       <c r="K145" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="L145" t="n">
-        <v>333</v>
+        <v>9</v>
       </c>
       <c r="M145" t="n">
-        <v>9.17</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>bctech2155</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>15</v>
+      </c>
+      <c r="D146" t="n">
+        <v>10</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16</v>
+      </c>
+      <c r="H146" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="I146" t="n">
+        <v>123</v>
+      </c>
+      <c r="J146" t="n">
+        <v>281</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L146" t="n">
+        <v>13</v>
+      </c>
+      <c r="M146" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>bctech2156</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="I147" t="n">
+        <v>93</v>
+      </c>
+      <c r="J147" t="n">
+        <v>181</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>bctech2157</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>282</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>180</v>
-      </c>
-      <c r="H146" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I146" t="n">
-        <v>4218</v>
-      </c>
-      <c r="J146" t="n">
-        <v>7250</v>
-      </c>
-      <c r="K146" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="L146" t="n">
-        <v>340</v>
-      </c>
-      <c r="M146" t="n">
-        <v>9.279999999999999</v>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>10</v>
+      </c>
+      <c r="H148" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="I148" t="n">
+        <v>107</v>
+      </c>
+      <c r="J148" t="n">
+        <v>235</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3</v>
+      </c>
+      <c r="M148" t="n">
+        <v>6.95</v>
       </c>
     </row>
   </sheetData>
